--- a/Hardware/Glove_PCB/Project Outputs for Free Documents/BOM/Bill of Materials-ActiveBOM.xlsx
+++ b/Hardware/Glove_PCB/Project Outputs for Free Documents/BOM/Bill of Materials-ActiveBOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\MarioKar\Hardware\Glove_PCB\Project Outputs for Free Documents\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Gustavo\Documents\MarioKar\Hardware\Glove_PCB\Project Outputs for Free Documents\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{510342BC-98F9-4AB0-8A87-D84C6163E144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E81D4FE-E602-4BFD-A105-5914D054D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A5F5427F-527C-43A2-9CFC-B4E23DBD3DB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE09131-1C31-414E-B4C9-0F7B46E99053}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ActiveBOM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Line #</t>
   </si>
@@ -47,34 +47,25 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Manufacturer 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>Manufacturer Lifecycle 1</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>Supplier Unit Price 1</t>
-  </si>
-  <si>
-    <t>Supplier Subtotal 1</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Package</t>
   </si>
   <si>
     <t/>
@@ -83,69 +74,78 @@
     <t>KAM21BR71H104JM</t>
   </si>
   <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
     <t>Multilayer Ceramic Chip Capacitors, Capacitance=0.1u</t>
   </si>
   <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
     <t>C2012X7R1H225K125AE</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>Multilayer Ceramic Chip Capacitors, Capacitance=2.2u</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>GCM21BR71H474KA55K</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>Multilayer Ceramic Chip Capacitors, Capacitance=0.47u</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>C2012X5R1A336M125AC</t>
   </si>
   <si>
+    <t>C5</t>
+  </si>
+  <si>
     <t>Multilayer Ceramic Chip Capacitors, Capacitance=33u</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>WL-SMCW_0603</t>
   </si>
   <si>
+    <t>D1, D4</t>
+  </si>
+  <si>
     <t>0603, Yellow Typ.(@20mA): 590nm, 120mcd, 2.0V, 140Â° AlInGaP</t>
   </si>
   <si>
-    <t>D1, D4</t>
+    <t>0603 Wurth Electronics</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
   </si>
   <si>
     <t>0603, Super Red Typ.(@20mA): 630nm, 60mcd, 1.9V, 140Â° AlInGaP</t>
   </si>
   <si>
-    <t>D2, D3</t>
+    <t>0603 WÃ¼rth Elektronik</t>
   </si>
   <si>
     <t>SM06B-GHS-TB</t>
   </si>
   <si>
+    <t>J1</t>
+  </si>
+  <si>
     <t>No Description Available</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>691210910002</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>ICM-42670-P</t>
   </si>
   <si>
@@ -155,21 +155,21 @@
     <t>RC0805JR-07100RL</t>
   </si>
   <si>
+    <t>R1, R5, R7</t>
+  </si>
+  <si>
     <t>RES 0805 100 5% 1/8W</t>
   </si>
   <si>
-    <t>R1, R5, R7</t>
-  </si>
-  <si>
     <t>RC0805JR-074K7L</t>
   </si>
   <si>
+    <t>R2, R3, R4, R6, R8, R9</t>
+  </si>
+  <si>
     <t>RES 0805 4.7k 5% 1/8W</t>
   </si>
   <si>
-    <t>R2, R3, R4, R6, R8, R9</t>
-  </si>
-  <si>
     <t>RT0603BRD0750RL</t>
   </si>
   <si>
@@ -182,6 +182,9 @@
     <t>SW1</t>
   </si>
   <si>
+    <t>Slide Switches</t>
+  </si>
+  <si>
     <t>ESP32_XIAO</t>
   </si>
   <si>
@@ -197,10 +200,13 @@
     <t>LM3940ISX-3.3/NOPB</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
     <t>1-A, low-dropout voltage regulator for 5-V to 3.3-V conversion 3-DDPAK/TO-263 -40 to 125</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>LM3940IS-3.3</t>
   </si>
 </sst>
 </file>
@@ -596,28 +602,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3641EF66-1147-4D3E-B8EB-1FC4C4A0A2F1}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0737B1C7-F0A3-4270-9E91-5A8CC15B3002}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.06640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" customWidth="1"/>
-    <col min="7" max="7" width="28.3984375" customWidth="1"/>
-    <col min="8" max="8" width="25.1328125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="22.1328125" customWidth="1"/>
-    <col min="12" max="12" width="21.3984375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,206 +648,179 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
@@ -852,71 +828,64 @@
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
@@ -924,21 +893,20 @@
         <v>4</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
@@ -946,65 +914,58 @@
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1012,12 +973,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
